--- a/data_pulling/team_game_logs_1819/team_game_log_GSW.xlsx
+++ b/data_pulling/team_game_logs_1819/team_game_log_GSW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="125">
   <si>
     <t>game.awayTeamAbbreviation</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>2018-12-08T02:30:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-11T03:30:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -743,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV28"/>
+  <dimension ref="A1:BV29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7018,6 +7021,230 @@
         <v>101</v>
       </c>
     </row>
+    <row r="29" spans="1:74">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29">
+        <v>47969</v>
+      </c>
+      <c r="E29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>108</v>
+      </c>
+      <c r="K29">
+        <v>108</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
+        <v>16</v>
+      </c>
+      <c r="O29">
+        <v>16</v>
+      </c>
+      <c r="P29">
+        <v>50</v>
+      </c>
+      <c r="Q29">
+        <v>50</v>
+      </c>
+      <c r="R29">
+        <v>20</v>
+      </c>
+      <c r="S29">
+        <v>20</v>
+      </c>
+      <c r="T29">
+        <v>40</v>
+      </c>
+      <c r="U29">
+        <v>43</v>
+      </c>
+      <c r="V29">
+        <v>43</v>
+      </c>
+      <c r="W29">
+        <v>19</v>
+      </c>
+      <c r="X29">
+        <v>19</v>
+      </c>
+      <c r="Y29">
+        <v>44.2</v>
+      </c>
+      <c r="Z29">
+        <v>93</v>
+      </c>
+      <c r="AA29">
+        <v>93</v>
+      </c>
+      <c r="AB29">
+        <v>39</v>
+      </c>
+      <c r="AC29">
+        <v>39</v>
+      </c>
+      <c r="AD29">
+        <v>41.9</v>
+      </c>
+      <c r="AE29">
+        <v>21</v>
+      </c>
+      <c r="AF29">
+        <v>21</v>
+      </c>
+      <c r="AG29">
+        <v>19</v>
+      </c>
+      <c r="AH29">
+        <v>19</v>
+      </c>
+      <c r="AI29">
+        <v>90.5</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>26</v>
+      </c>
+      <c r="AT29">
+        <v>18</v>
+      </c>
+      <c r="AU29">
+        <v>18</v>
+      </c>
+      <c r="AV29">
+        <v>26</v>
+      </c>
+      <c r="AW29">
+        <v>26</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>26</v>
+      </c>
+      <c r="BB29">
+        <v>18</v>
+      </c>
+      <c r="BC29">
+        <v>18</v>
+      </c>
+      <c r="BD29">
+        <v>26</v>
+      </c>
+      <c r="BE29">
+        <v>8</v>
+      </c>
+      <c r="BF29">
+        <v>8</v>
+      </c>
+      <c r="BG29">
+        <v>25</v>
+      </c>
+      <c r="BH29">
+        <v>25</v>
+      </c>
+      <c r="BI29">
+        <v>116</v>
+      </c>
+      <c r="BJ29">
+        <v>116</v>
+      </c>
+      <c r="BK29">
+        <v>35</v>
+      </c>
+      <c r="BL29">
+        <v>35</v>
+      </c>
+      <c r="BM29">
+        <v>14</v>
+      </c>
+      <c r="BN29">
+        <v>14</v>
+      </c>
+      <c r="BO29">
+        <v>49</v>
+      </c>
+      <c r="BP29">
+        <v>49</v>
+      </c>
+      <c r="BQ29">
+        <v>0</v>
+      </c>
+      <c r="BR29">
+        <v>0</v>
+      </c>
+      <c r="BS29">
+        <v>1</v>
+      </c>
+      <c r="BT29">
+        <v>1</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV29">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
